--- a/Dokumenty/SWOT_Analýza.xlsx
+++ b/Dokumenty/SWOT_Analýza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukáš\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\swinz\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A37629-5749-417A-9833-3E516F033068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C232A5C-100C-426B-A727-28A36C49BA64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CF3925C4-FCA5-4166-9037-95F1B8F66A10}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Strengths</t>
   </si>
@@ -78,6 +78,36 @@
   </si>
   <si>
     <t>Intuitivnost ovládání</t>
+  </si>
+  <si>
+    <t>Strategie</t>
+  </si>
+  <si>
+    <t>Rozšířit aplikaci o responzivnost</t>
+  </si>
+  <si>
+    <t>Pokračovat ve vývoji s moderními frameworky</t>
+  </si>
+  <si>
+    <t>Pořídit záložní zdroje</t>
+  </si>
+  <si>
+    <t>Vytvořit login účty, zabezpečit server</t>
+  </si>
+  <si>
+    <t>Hlídat konkurenci a kontinuálně rozšiřovat SW</t>
+  </si>
+  <si>
+    <t>Pokračovat ve vývoji webové aplikace</t>
+  </si>
+  <si>
+    <t>Upravovat UI podle vývoje trendů</t>
+  </si>
+  <si>
+    <t>Tlačit na cenu sw</t>
+  </si>
+  <si>
+    <t>Viz Weaknesses</t>
   </si>
 </sst>
 </file>
@@ -182,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -272,6 +302,77 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -284,8 +385,56 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,88 +444,79 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -697,191 +837,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD852DA-A0B8-40FD-9747-85E091C1B521}">
-  <dimension ref="G8:P20"/>
+  <dimension ref="G8:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="22" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="22" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="22" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G13" s="15"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="15"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="1" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
     </row>
     <row r="16" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="25" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="25" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G19" s="17"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="30"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="23" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="34"/>
+    </row>
+    <row r="25" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="28"/>
+    </row>
+    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G27" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G28" s="35"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="35"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="38"/>
+    </row>
+    <row r="33" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G33" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="38"/>
+    </row>
+    <row r="34" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="45">
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="G24:P24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="G19:K19"/>
@@ -891,21 +1228,6 @@
     <mergeCell ref="L18:P18"/>
     <mergeCell ref="L19:P19"/>
     <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Dokumenty/SWOT_Analýza.xlsx
+++ b/Dokumenty/SWOT_Analýza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\swinz\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C232A5C-100C-426B-A727-28A36C49BA64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10885BA-9BF2-418A-8608-DA6D5066EA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CF3925C4-FCA5-4166-9037-95F1B8F66A10}"/>
   </bookViews>
@@ -33,81 +33,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Strengths</t>
   </si>
   <si>
-    <t>Přehledné a příjemné UI</t>
-  </si>
-  <si>
-    <t>Webová aplikace</t>
-  </si>
-  <si>
-    <t>Jednoduchá rozšiřitelnost</t>
-  </si>
-  <si>
-    <t>Bez záložních zdrojů (server, databáze,…)</t>
-  </si>
-  <si>
-    <t>Není responzivní</t>
-  </si>
-  <si>
-    <t>Chybí zabezpečení (login, uživatelé,...)</t>
-  </si>
-  <si>
     <t>Opportunities</t>
   </si>
   <si>
-    <t>Rostoucí trh s podobným sw</t>
-  </si>
-  <si>
-    <t>Moderní přístup k vývoji</t>
-  </si>
-  <si>
     <t>Threaths</t>
   </si>
   <si>
     <t>Weaknesses</t>
   </si>
   <si>
-    <t>Vysoká míra konkurence</t>
-  </si>
-  <si>
-    <t>Zabezpečení</t>
-  </si>
-  <si>
-    <t>Intuitivnost ovládání</t>
-  </si>
-  <si>
     <t>Strategie</t>
   </si>
   <si>
-    <t>Rozšířit aplikaci o responzivnost</t>
-  </si>
-  <si>
-    <t>Pokračovat ve vývoji s moderními frameworky</t>
-  </si>
-  <si>
-    <t>Pořídit záložní zdroje</t>
-  </si>
-  <si>
-    <t>Vytvořit login účty, zabezpečit server</t>
-  </si>
-  <si>
-    <t>Hlídat konkurenci a kontinuálně rozšiřovat SW</t>
-  </si>
-  <si>
-    <t>Pokračovat ve vývoji webové aplikace</t>
-  </si>
-  <si>
-    <t>Upravovat UI podle vývoje trendů</t>
-  </si>
-  <si>
-    <t>Tlačit na cenu sw</t>
-  </si>
-  <si>
-    <t>Viz Weaknesses</t>
+    <t>1. Přehledné a příjemné UI</t>
+  </si>
+  <si>
+    <t>2. Webová aplikace</t>
+  </si>
+  <si>
+    <t>3. Jednoduchá rozšiřitelnost</t>
+  </si>
+  <si>
+    <t>1. Bez záložních zdrojů (server, databáze,…)</t>
+  </si>
+  <si>
+    <t>2. Není responzivní</t>
+  </si>
+  <si>
+    <t>1. Vysoká míra konkurence</t>
+  </si>
+  <si>
+    <t>2. Zabezpečení (servery, ale i client-side)</t>
+  </si>
+  <si>
+    <t>1. Rostoucí trh s podobným sw</t>
+  </si>
+  <si>
+    <t>1. Vytvořit si skupinu věrných zákazníků pomocí sociálních sítí a aktivní komunikace</t>
+  </si>
+  <si>
+    <t>2. Jednoduchý přístup zákazníků k internetu</t>
+  </si>
+  <si>
+    <t>1. Trvat na udržení přehlednosti a příjemnosti UI</t>
+  </si>
+  <si>
+    <t>3. Dále rozšiřovat aplikaci novými prvky na poli inteligentních domů</t>
+  </si>
+  <si>
+    <t>2. Sledovat moderní trendy ve webovém vývoji, pravidelně se scházet s dev. týmem a hledat možná vylepšení</t>
+  </si>
+  <si>
+    <t>2. Propagovat přístupnost aplikace pomocí vytvořených sociálních skupin</t>
+  </si>
+  <si>
+    <t>1. Nakoupit dostatečné servery pro běh aplikace a zálohování kritických dat</t>
+  </si>
+  <si>
+    <t>2. Doplnit aplikaci o responzivnost tak, aby vyhovovala všem platformám</t>
+  </si>
+  <si>
+    <t>1. Vytvářet slevové akce/giveaway pomocí sociálních sítí</t>
+  </si>
+  <si>
+    <t>2. Konat pravidelný (měsíčně) průzkum na poli bezpečnostních novinek</t>
   </si>
 </sst>
 </file>
@@ -385,7 +379,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,6 +447,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,53 +474,98 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -839,39 +887,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD852DA-A0B8-40FD-9747-85E091C1B521}">
   <dimension ref="G8:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G10" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
+      <c r="G10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -879,15 +927,15 @@
       <c r="P10" s="16"/>
     </row>
     <row r="11" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
+      <c r="G11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -895,27 +943,25 @@
       <c r="P11" s="16"/>
     </row>
     <row r="12" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G12" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="G12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="16"/>
     </row>
     <row r="13" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="14"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
@@ -923,11 +969,11 @@
       <c r="P13" s="16"/>
     </row>
     <row r="14" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
@@ -936,14 +982,14 @@
     </row>
     <row r="15" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G15" s="20" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="22"/>
       <c r="L15" s="17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -952,14 +998,14 @@
     </row>
     <row r="16" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
       <c r="L16" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -968,14 +1014,14 @@
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -983,9 +1029,7 @@
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1023,7 +1067,7 @@
     <row r="23" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G24" s="32" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
@@ -1036,71 +1080,73 @@
       <c r="P24" s="34"/>
     </row>
     <row r="25" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="28"/>
-    </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="35" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="31"/>
+    </row>
+    <row r="26" spans="7:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" spans="7:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="36"/>
-    </row>
-    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="35" t="s">
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="56"/>
+    </row>
+    <row r="28" spans="7:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="36"/>
-    </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G28" s="35"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
       <c r="L28" s="14"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="36"/>
     </row>
-    <row r="29" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="35"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="14"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -1109,56 +1155,54 @@
     </row>
     <row r="30" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="20" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="22"/>
       <c r="L30" s="17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="19"/>
     </row>
-    <row r="31" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="38"/>
-    </row>
-    <row r="32" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G32" s="37" t="s">
+    <row r="31" spans="7:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="38"/>
-    </row>
-    <row r="33" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G33" s="37" t="s">
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
+    </row>
+    <row r="32" spans="7:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51" t="s">
         <v>22</v>
       </c>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="53"/>
+    </row>
+    <row r="33" spans="7:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="44"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1167,19 +1211,19 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="38"/>
-    </row>
-    <row r="34" spans="7:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="44"/>
+      <c r="P33" s="43"/>
+    </row>
+    <row r="34" spans="7:16" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="45">
